--- a/assets/charinfo.xlsx
+++ b/assets/charinfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\arcanaweb\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E2969D-23DA-43B1-9291-097E2FF080F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C404F58-8523-4116-84BC-6AE164219AF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="2280" windowWidth="21495" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="330">
   <si>
     <t>劍士</t>
   </si>
@@ -612,6 +612,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1101.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1101</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1221,6 +1225,10 @@
   </si>
   <si>
     <t>無敵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1101_Q.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1597,8 +1605,8 @@
   <dimension ref="A1:P150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M144" sqref="A1:P150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1664,52 +1672,57 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>324</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="P2" s="3"/>
+        <v>325</v>
+      </c>
+      <c r="O2" t="s">
+        <v>329</v>
+      </c>
+      <c r="P2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>0</v>
@@ -1754,10 +1767,14 @@
         <f t="shared" ref="O2:O20" si="0">A3&amp;"_Q.png"</f>
         <v>1101_Q.png</v>
       </c>
+      <c r="P3" t="str">
+        <f>A3&amp;".png"</f>
+        <v>1101.png</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -1802,10 +1819,14 @@
         <f t="shared" si="0"/>
         <v>1201_Q.png</v>
       </c>
+      <c r="P4" t="str">
+        <f t="shared" ref="P4:P67" si="1">A4&amp;".png"</f>
+        <v>1201.png</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>4</v>
@@ -1850,10 +1871,14 @@
         <f t="shared" si="0"/>
         <v>1301_Q.png</v>
       </c>
+      <c r="P5" t="str">
+        <f t="shared" si="1"/>
+        <v>1301.png</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -1898,10 +1923,14 @@
         <f t="shared" si="0"/>
         <v>1401_Q.png</v>
       </c>
+      <c r="P6" t="str">
+        <f t="shared" si="1"/>
+        <v>1401.png</v>
+      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
@@ -1946,10 +1975,14 @@
         <f t="shared" si="0"/>
         <v>1501_Q.png</v>
       </c>
+      <c r="P7" t="str">
+        <f t="shared" si="1"/>
+        <v>1501.png</v>
+      </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>7</v>
@@ -1994,10 +2027,14 @@
         <f t="shared" si="0"/>
         <v>1601_Q.png</v>
       </c>
+      <c r="P8" t="str">
+        <f t="shared" si="1"/>
+        <v>1601.png</v>
+      </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
@@ -2042,10 +2079,14 @@
         <f t="shared" si="0"/>
         <v>1701_Q.png</v>
       </c>
+      <c r="P9" t="str">
+        <f t="shared" si="1"/>
+        <v>1701.png</v>
+      </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
@@ -2090,10 +2131,14 @@
         <f t="shared" si="0"/>
         <v>1801_Q.png</v>
       </c>
+      <c r="P10" t="str">
+        <f t="shared" si="1"/>
+        <v>1801.png</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -2138,10 +2183,14 @@
         <f t="shared" si="0"/>
         <v>2101_Q.png</v>
       </c>
+      <c r="P11" t="str">
+        <f t="shared" si="1"/>
+        <v>2101.png</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>11</v>
@@ -2186,10 +2235,14 @@
         <f t="shared" si="0"/>
         <v>2201_Q.png</v>
       </c>
+      <c r="P12" t="str">
+        <f t="shared" si="1"/>
+        <v>2201.png</v>
+      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>12</v>
@@ -2234,10 +2287,14 @@
         <f t="shared" si="0"/>
         <v>2301_Q.png</v>
       </c>
+      <c r="P13" t="str">
+        <f t="shared" si="1"/>
+        <v>2301.png</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>13</v>
@@ -2282,10 +2339,14 @@
         <f t="shared" si="0"/>
         <v>2401_Q.png</v>
       </c>
+      <c r="P14" t="str">
+        <f t="shared" si="1"/>
+        <v>2401.png</v>
+      </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>14</v>
@@ -2330,10 +2391,14 @@
         <f t="shared" si="0"/>
         <v>2501_Q.png</v>
       </c>
+      <c r="P15" t="str">
+        <f t="shared" si="1"/>
+        <v>2501.png</v>
+      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>15</v>
@@ -2378,10 +2443,14 @@
         <f t="shared" si="0"/>
         <v>2601_Q.png</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" t="str">
+        <f t="shared" si="1"/>
+        <v>2601.png</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>16</v>
@@ -2426,10 +2495,14 @@
         <f t="shared" si="0"/>
         <v>2701_Q.png</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" t="str">
+        <f t="shared" si="1"/>
+        <v>2701.png</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>17</v>
@@ -2474,10 +2547,14 @@
         <f t="shared" si="0"/>
         <v>2801_Q.png</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" t="str">
+        <f t="shared" si="1"/>
+        <v>2801.png</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>18</v>
@@ -2522,10 +2599,14 @@
         <f t="shared" si="0"/>
         <v>2102_Q.png</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" t="str">
+        <f t="shared" si="1"/>
+        <v>2102.png</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>19</v>
@@ -2570,10 +2651,14 @@
         <f t="shared" si="0"/>
         <v>2202_Q.png</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" t="str">
+        <f t="shared" si="1"/>
+        <v>2202.png</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>20</v>
@@ -2618,10 +2703,14 @@
         <f>A21&amp;"_Q.png"</f>
         <v>2302_Q.png</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" t="str">
+        <f t="shared" si="1"/>
+        <v>2302.png</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>21</v>
@@ -2663,13 +2752,17 @@
         <v>0</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" ref="O22:O85" si="1">A22&amp;"_Q.png"</f>
+        <f t="shared" ref="O22:O85" si="2">A22&amp;"_Q.png"</f>
         <v>2402_Q.png</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" t="str">
+        <f t="shared" si="1"/>
+        <v>2402.png</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>22</v>
@@ -2711,13 +2804,17 @@
         <v>0</v>
       </c>
       <c r="O23" t="str">
+        <f t="shared" si="2"/>
+        <v>2502_Q.png</v>
+      </c>
+      <c r="P23" t="str">
         <f t="shared" si="1"/>
-        <v>2502_Q.png</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>2502.png</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>23</v>
@@ -2759,13 +2856,17 @@
         <v>1</v>
       </c>
       <c r="O24" t="str">
+        <f t="shared" si="2"/>
+        <v>2602_Q.png</v>
+      </c>
+      <c r="P24" t="str">
         <f t="shared" si="1"/>
-        <v>2602_Q.png</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>2602.png</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>24</v>
@@ -2807,13 +2908,17 @@
         <v>0</v>
       </c>
       <c r="O25" t="str">
+        <f t="shared" si="2"/>
+        <v>2702_Q.png</v>
+      </c>
+      <c r="P25" t="str">
         <f t="shared" si="1"/>
-        <v>2702_Q.png</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>2702.png</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>25</v>
@@ -2855,13 +2960,17 @@
         <v>1</v>
       </c>
       <c r="O26" t="str">
+        <f t="shared" si="2"/>
+        <v>2802_Q.png</v>
+      </c>
+      <c r="P26" t="str">
         <f t="shared" si="1"/>
-        <v>2802_Q.png</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>2802.png</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>26</v>
@@ -2903,13 +3012,17 @@
         <v>0</v>
       </c>
       <c r="O27" t="str">
+        <f t="shared" si="2"/>
+        <v>3101_Q.png</v>
+      </c>
+      <c r="P27" t="str">
         <f t="shared" si="1"/>
-        <v>3101_Q.png</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>3101.png</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>27</v>
@@ -2951,13 +3064,17 @@
         <v>0</v>
       </c>
       <c r="O28" t="str">
+        <f t="shared" si="2"/>
+        <v>3201_Q.png</v>
+      </c>
+      <c r="P28" t="str">
         <f t="shared" si="1"/>
-        <v>3201_Q.png</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>3201.png</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>28</v>
@@ -2999,13 +3116,17 @@
         <v>0</v>
       </c>
       <c r="O29" t="str">
+        <f t="shared" si="2"/>
+        <v>3301_Q.png</v>
+      </c>
+      <c r="P29" t="str">
         <f t="shared" si="1"/>
-        <v>3301_Q.png</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>3301.png</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>29</v>
@@ -3047,13 +3168,17 @@
         <v>1</v>
       </c>
       <c r="O30" t="str">
+        <f t="shared" si="2"/>
+        <v>3401_Q.png</v>
+      </c>
+      <c r="P30" t="str">
         <f t="shared" si="1"/>
-        <v>3401_Q.png</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>3401.png</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>30</v>
@@ -3095,13 +3220,17 @@
         <v>0</v>
       </c>
       <c r="O31" t="str">
+        <f t="shared" si="2"/>
+        <v>3501_Q.png</v>
+      </c>
+      <c r="P31" t="str">
         <f t="shared" si="1"/>
-        <v>3501_Q.png</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>3501.png</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>31</v>
@@ -3143,13 +3272,17 @@
         <v>0</v>
       </c>
       <c r="O32" t="str">
+        <f t="shared" si="2"/>
+        <v>3601_Q.png</v>
+      </c>
+      <c r="P32" t="str">
         <f t="shared" si="1"/>
-        <v>3601_Q.png</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>3601.png</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>32</v>
@@ -3191,13 +3324,17 @@
         <v>0</v>
       </c>
       <c r="O33" t="str">
+        <f t="shared" si="2"/>
+        <v>3701_Q.png</v>
+      </c>
+      <c r="P33" t="str">
         <f t="shared" si="1"/>
-        <v>3701_Q.png</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>3701.png</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>33</v>
@@ -3239,13 +3376,17 @@
         <v>1</v>
       </c>
       <c r="O34" t="str">
+        <f t="shared" si="2"/>
+        <v>3801_Q.png</v>
+      </c>
+      <c r="P34" t="str">
         <f t="shared" si="1"/>
-        <v>3801_Q.png</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>3801.png</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>34</v>
@@ -3287,13 +3428,17 @@
         <v>1</v>
       </c>
       <c r="O35" t="str">
+        <f t="shared" si="2"/>
+        <v>3102_Q.png</v>
+      </c>
+      <c r="P35" t="str">
         <f t="shared" si="1"/>
-        <v>3102_Q.png</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>3102.png</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>35</v>
@@ -3335,13 +3480,17 @@
         <v>0</v>
       </c>
       <c r="O36" t="str">
+        <f t="shared" si="2"/>
+        <v>3202_Q.png</v>
+      </c>
+      <c r="P36" t="str">
         <f t="shared" si="1"/>
-        <v>3202_Q.png</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>3202.png</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>36</v>
@@ -3383,13 +3532,17 @@
         <v>1</v>
       </c>
       <c r="O37" t="str">
+        <f t="shared" si="2"/>
+        <v>3302_Q.png</v>
+      </c>
+      <c r="P37" t="str">
         <f t="shared" si="1"/>
-        <v>3302_Q.png</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>3302.png</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>37</v>
@@ -3431,13 +3584,17 @@
         <v>0</v>
       </c>
       <c r="O38" t="str">
+        <f t="shared" si="2"/>
+        <v>3402_Q.png</v>
+      </c>
+      <c r="P38" t="str">
         <f t="shared" si="1"/>
-        <v>3402_Q.png</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>3402.png</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>38</v>
@@ -3479,13 +3636,17 @@
         <v>1</v>
       </c>
       <c r="O39" t="str">
+        <f t="shared" si="2"/>
+        <v>3502_Q.png</v>
+      </c>
+      <c r="P39" t="str">
         <f t="shared" si="1"/>
-        <v>3502_Q.png</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>3502.png</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>39</v>
@@ -3527,13 +3688,17 @@
         <v>1</v>
       </c>
       <c r="O40" t="str">
+        <f t="shared" si="2"/>
+        <v>3602_Q.png</v>
+      </c>
+      <c r="P40" t="str">
         <f t="shared" si="1"/>
-        <v>3602_Q.png</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>3602.png</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>40</v>
@@ -3575,13 +3740,17 @@
         <v>0</v>
       </c>
       <c r="O41" t="str">
+        <f t="shared" si="2"/>
+        <v>3702_Q.png</v>
+      </c>
+      <c r="P41" t="str">
         <f t="shared" si="1"/>
-        <v>3702_Q.png</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>3702.png</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>41</v>
@@ -3623,13 +3792,17 @@
         <v>3</v>
       </c>
       <c r="O42" t="str">
+        <f t="shared" si="2"/>
+        <v>3802_Q.png</v>
+      </c>
+      <c r="P42" t="str">
         <f t="shared" si="1"/>
-        <v>3802_Q.png</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>3802.png</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>42</v>
@@ -3671,13 +3844,17 @@
         <v>0</v>
       </c>
       <c r="O43" t="str">
+        <f t="shared" si="2"/>
+        <v>3103_Q.png</v>
+      </c>
+      <c r="P43" t="str">
         <f t="shared" si="1"/>
-        <v>3103_Q.png</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>3103.png</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>43</v>
@@ -3719,13 +3896,17 @@
         <v>0</v>
       </c>
       <c r="O44" t="str">
+        <f t="shared" si="2"/>
+        <v>3203_Q.png</v>
+      </c>
+      <c r="P44" t="str">
         <f t="shared" si="1"/>
-        <v>3203_Q.png</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>3203.png</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>44</v>
@@ -3767,13 +3948,17 @@
         <v>0</v>
       </c>
       <c r="O45" t="str">
+        <f t="shared" si="2"/>
+        <v>3303_Q.png</v>
+      </c>
+      <c r="P45" t="str">
         <f t="shared" si="1"/>
-        <v>3303_Q.png</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>3303.png</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>45</v>
@@ -3815,13 +4000,17 @@
         <v>0</v>
       </c>
       <c r="O46" t="str">
+        <f t="shared" si="2"/>
+        <v>3403_Q.png</v>
+      </c>
+      <c r="P46" t="str">
         <f t="shared" si="1"/>
-        <v>3403_Q.png</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>3403.png</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>46</v>
@@ -3863,13 +4052,17 @@
         <v>0</v>
       </c>
       <c r="O47" t="str">
+        <f t="shared" si="2"/>
+        <v>3503_Q.png</v>
+      </c>
+      <c r="P47" t="str">
         <f t="shared" si="1"/>
-        <v>3503_Q.png</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>3503.png</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>47</v>
@@ -3911,13 +4104,17 @@
         <v>1</v>
       </c>
       <c r="O48" t="str">
+        <f t="shared" si="2"/>
+        <v>3603_Q.png</v>
+      </c>
+      <c r="P48" t="str">
         <f t="shared" si="1"/>
-        <v>3603_Q.png</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>3603.png</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>48</v>
@@ -3959,13 +4156,17 @@
         <v>0</v>
       </c>
       <c r="O49" t="str">
+        <f t="shared" si="2"/>
+        <v>3703_Q.png</v>
+      </c>
+      <c r="P49" t="str">
         <f t="shared" si="1"/>
-        <v>3703_Q.png</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>3703.png</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>49</v>
@@ -4007,13 +4208,17 @@
         <v>2</v>
       </c>
       <c r="O50" t="str">
+        <f t="shared" si="2"/>
+        <v>2803_Q.png</v>
+      </c>
+      <c r="P50" t="str">
         <f t="shared" si="1"/>
-        <v>2803_Q.png</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>2803.png</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>50</v>
@@ -4055,13 +4260,17 @@
         <v>0</v>
       </c>
       <c r="O51" t="str">
+        <f t="shared" si="2"/>
+        <v>3104_Q.png</v>
+      </c>
+      <c r="P51" t="str">
         <f t="shared" si="1"/>
-        <v>3104_Q.png</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>3104.png</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>51</v>
@@ -4103,13 +4312,17 @@
         <v>1</v>
       </c>
       <c r="O52" t="str">
+        <f t="shared" si="2"/>
+        <v>3204_Q.png</v>
+      </c>
+      <c r="P52" t="str">
         <f t="shared" si="1"/>
-        <v>3204_Q.png</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>3204.png</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>52</v>
@@ -4151,13 +4364,17 @@
         <v>0</v>
       </c>
       <c r="O53" t="str">
+        <f t="shared" si="2"/>
+        <v>3304_Q.png</v>
+      </c>
+      <c r="P53" t="str">
         <f t="shared" si="1"/>
-        <v>3304_Q.png</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>3304.png</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>53</v>
@@ -4199,13 +4416,17 @@
         <v>0</v>
       </c>
       <c r="O54" t="str">
+        <f t="shared" si="2"/>
+        <v>3404_Q.png</v>
+      </c>
+      <c r="P54" t="str">
         <f t="shared" si="1"/>
-        <v>3404_Q.png</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>3404.png</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>54</v>
@@ -4247,13 +4468,17 @@
         <v>0</v>
       </c>
       <c r="O55" t="str">
+        <f t="shared" si="2"/>
+        <v>3504_Q.png</v>
+      </c>
+      <c r="P55" t="str">
         <f t="shared" si="1"/>
-        <v>3504_Q.png</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>3504.png</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>55</v>
@@ -4295,13 +4520,17 @@
         <v>1</v>
       </c>
       <c r="O56" t="str">
+        <f t="shared" si="2"/>
+        <v>3604_Q.png</v>
+      </c>
+      <c r="P56" t="str">
         <f t="shared" si="1"/>
-        <v>3604_Q.png</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+        <v>3604.png</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>56</v>
@@ -4343,13 +4572,17 @@
         <v>0</v>
       </c>
       <c r="O57" t="str">
+        <f t="shared" si="2"/>
+        <v>3704_Q.png</v>
+      </c>
+      <c r="P57" t="str">
         <f t="shared" si="1"/>
-        <v>3704_Q.png</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>3704.png</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>57</v>
@@ -4391,13 +4624,17 @@
         <v>1</v>
       </c>
       <c r="O58" t="str">
+        <f t="shared" si="2"/>
+        <v>3804_Q.png</v>
+      </c>
+      <c r="P58" t="str">
         <f t="shared" si="1"/>
-        <v>3804_Q.png</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>3804.png</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>58</v>
@@ -4439,13 +4676,17 @@
         <v>0</v>
       </c>
       <c r="O59" t="str">
+        <f t="shared" si="2"/>
+        <v>4101_Q.png</v>
+      </c>
+      <c r="P59" t="str">
         <f t="shared" si="1"/>
-        <v>4101_Q.png</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>4101.png</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>59</v>
@@ -4487,13 +4728,17 @@
         <v>0</v>
       </c>
       <c r="O60" t="str">
+        <f t="shared" si="2"/>
+        <v>4201_Q.png</v>
+      </c>
+      <c r="P60" t="str">
         <f t="shared" si="1"/>
-        <v>4201_Q.png</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>4201.png</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>60</v>
@@ -4535,13 +4780,17 @@
         <v>1</v>
       </c>
       <c r="O61" t="str">
+        <f t="shared" si="2"/>
+        <v>4301_Q.png</v>
+      </c>
+      <c r="P61" t="str">
         <f t="shared" si="1"/>
-        <v>4301_Q.png</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>4301.png</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>61</v>
@@ -4583,13 +4832,17 @@
         <v>1</v>
       </c>
       <c r="O62" t="str">
+        <f t="shared" si="2"/>
+        <v>4401_Q.png</v>
+      </c>
+      <c r="P62" t="str">
         <f t="shared" si="1"/>
-        <v>4401_Q.png</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>4401.png</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>62</v>
@@ -4631,13 +4884,17 @@
         <v>0</v>
       </c>
       <c r="O63" t="str">
+        <f t="shared" si="2"/>
+        <v>4501_Q.png</v>
+      </c>
+      <c r="P63" t="str">
         <f t="shared" si="1"/>
-        <v>4501_Q.png</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>4501.png</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>63</v>
@@ -4679,13 +4936,17 @@
         <v>3</v>
       </c>
       <c r="O64" t="str">
+        <f t="shared" si="2"/>
+        <v>4601_Q.png</v>
+      </c>
+      <c r="P64" t="str">
         <f t="shared" si="1"/>
-        <v>4601_Q.png</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>4601.png</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>64</v>
@@ -4727,13 +4988,17 @@
         <v>0</v>
       </c>
       <c r="O65" t="str">
+        <f t="shared" si="2"/>
+        <v>4701_Q.png</v>
+      </c>
+      <c r="P65" t="str">
         <f t="shared" si="1"/>
-        <v>4701_Q.png</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>4701.png</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>65</v>
@@ -4775,13 +5040,17 @@
         <v>2</v>
       </c>
       <c r="O66" t="str">
+        <f t="shared" si="2"/>
+        <v>4801_Q.png</v>
+      </c>
+      <c r="P66" t="str">
         <f t="shared" si="1"/>
-        <v>4801_Q.png</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>4801.png</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>66</v>
@@ -4823,13 +5092,17 @@
         <v>0</v>
       </c>
       <c r="O67" t="str">
+        <f t="shared" si="2"/>
+        <v>4102_Q.png</v>
+      </c>
+      <c r="P67" t="str">
         <f t="shared" si="1"/>
-        <v>4102_Q.png</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+        <v>4102.png</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>67</v>
@@ -4871,13 +5144,17 @@
         <v>0</v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4202_Q.png</v>
       </c>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="P68" t="str">
+        <f t="shared" ref="P68:P131" si="3">A68&amp;".png"</f>
+        <v>4202.png</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>68</v>
@@ -4919,13 +5196,17 @@
         <v>0</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4302_Q.png</v>
       </c>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="P69" t="str">
+        <f t="shared" si="3"/>
+        <v>4302.png</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>156</v>
@@ -4967,13 +5248,17 @@
         <v>0</v>
       </c>
       <c r="O70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4402_Q.png</v>
       </c>
-    </row>
-    <row r="71" spans="1:15">
+      <c r="P70" t="str">
+        <f t="shared" si="3"/>
+        <v>4402.png</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>69</v>
@@ -5015,13 +5300,17 @@
         <v>1</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4502_Q.png</v>
       </c>
-    </row>
-    <row r="72" spans="1:15">
+      <c r="P71" t="str">
+        <f t="shared" si="3"/>
+        <v>4502.png</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>70</v>
@@ -5063,13 +5352,17 @@
         <v>1</v>
       </c>
       <c r="O72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4602_Q.png</v>
       </c>
-    </row>
-    <row r="73" spans="1:15">
+      <c r="P72" t="str">
+        <f t="shared" si="3"/>
+        <v>4602.png</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>71</v>
@@ -5111,13 +5404,17 @@
         <v>1</v>
       </c>
       <c r="O73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4702_Q.png</v>
       </c>
-    </row>
-    <row r="74" spans="1:15">
+      <c r="P73" t="str">
+        <f t="shared" si="3"/>
+        <v>4702.png</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>72</v>
@@ -5159,13 +5456,17 @@
         <v>3</v>
       </c>
       <c r="O74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4802_Q.png</v>
       </c>
-    </row>
-    <row r="75" spans="1:15">
+      <c r="P74" t="str">
+        <f t="shared" si="3"/>
+        <v>4802.png</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>73</v>
@@ -5207,13 +5508,17 @@
         <v>1</v>
       </c>
       <c r="O75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4103_Q.png</v>
       </c>
-    </row>
-    <row r="76" spans="1:15">
+      <c r="P75" t="str">
+        <f t="shared" si="3"/>
+        <v>4103.png</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>74</v>
@@ -5255,13 +5560,17 @@
         <v>0</v>
       </c>
       <c r="O76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4203_Q.png</v>
       </c>
-    </row>
-    <row r="77" spans="1:15">
+      <c r="P76" t="str">
+        <f t="shared" si="3"/>
+        <v>4203.png</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>75</v>
@@ -5303,13 +5612,17 @@
         <v>1</v>
       </c>
       <c r="O77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4303_Q.png</v>
       </c>
-    </row>
-    <row r="78" spans="1:15">
+      <c r="P77" t="str">
+        <f t="shared" si="3"/>
+        <v>4303.png</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>76</v>
@@ -5351,13 +5664,17 @@
         <v>0</v>
       </c>
       <c r="O78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4403_Q.png</v>
       </c>
-    </row>
-    <row r="79" spans="1:15">
+      <c r="P78" t="str">
+        <f t="shared" si="3"/>
+        <v>4403.png</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>77</v>
@@ -5399,13 +5716,17 @@
         <v>0</v>
       </c>
       <c r="O79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4503_Q.png</v>
       </c>
-    </row>
-    <row r="80" spans="1:15">
+      <c r="P79" t="str">
+        <f t="shared" si="3"/>
+        <v>4503.png</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>78</v>
@@ -5447,13 +5768,17 @@
         <v>2</v>
       </c>
       <c r="O80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4603_Q.png</v>
       </c>
-    </row>
-    <row r="81" spans="1:15">
+      <c r="P80" t="str">
+        <f t="shared" si="3"/>
+        <v>4603.png</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>79</v>
@@ -5495,13 +5820,17 @@
         <v>0</v>
       </c>
       <c r="O81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4703_Q.png</v>
       </c>
-    </row>
-    <row r="82" spans="1:15">
+      <c r="P81" t="str">
+        <f t="shared" si="3"/>
+        <v>4703.png</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>80</v>
@@ -5543,13 +5872,17 @@
         <v>4</v>
       </c>
       <c r="O82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4803_Q.png</v>
       </c>
-    </row>
-    <row r="83" spans="1:15">
+      <c r="P82" t="str">
+        <f t="shared" si="3"/>
+        <v>4803.png</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>81</v>
@@ -5591,13 +5924,17 @@
         <v>1</v>
       </c>
       <c r="O83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4101_Q.png</v>
       </c>
-    </row>
-    <row r="84" spans="1:15">
+      <c r="P83" t="str">
+        <f t="shared" si="3"/>
+        <v>4101.png</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>82</v>
@@ -5639,13 +5976,17 @@
         <v>0</v>
       </c>
       <c r="O84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4204_Q.png</v>
       </c>
-    </row>
-    <row r="85" spans="1:15">
+      <c r="P84" t="str">
+        <f t="shared" si="3"/>
+        <v>4204.png</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>83</v>
@@ -5687,13 +6028,17 @@
         <v>0</v>
       </c>
       <c r="O85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4304_Q.png</v>
       </c>
-    </row>
-    <row r="86" spans="1:15">
+      <c r="P85" t="str">
+        <f t="shared" si="3"/>
+        <v>4304.png</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>84</v>
@@ -5735,13 +6080,17 @@
         <v>0</v>
       </c>
       <c r="O86" t="str">
-        <f t="shared" ref="O86:O149" si="2">A86&amp;"_Q.png"</f>
+        <f t="shared" ref="O86:O149" si="4">A86&amp;"_Q.png"</f>
         <v>4404_Q.png</v>
       </c>
-    </row>
-    <row r="87" spans="1:15">
+      <c r="P86" t="str">
+        <f t="shared" si="3"/>
+        <v>4404.png</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>85</v>
@@ -5783,13 +6132,17 @@
         <v>1</v>
       </c>
       <c r="O87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4504_Q.png</v>
       </c>
-    </row>
-    <row r="88" spans="1:15">
+      <c r="P87" t="str">
+        <f t="shared" si="3"/>
+        <v>4504.png</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>86</v>
@@ -5831,13 +6184,17 @@
         <v>0</v>
       </c>
       <c r="O88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4604_Q.png</v>
       </c>
-    </row>
-    <row r="89" spans="1:15">
+      <c r="P88" t="str">
+        <f t="shared" si="3"/>
+        <v>4604.png</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>87</v>
@@ -5879,13 +6236,17 @@
         <v>0</v>
       </c>
       <c r="O89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4704_Q.png</v>
       </c>
-    </row>
-    <row r="90" spans="1:15">
+      <c r="P89" t="str">
+        <f t="shared" si="3"/>
+        <v>4704.png</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>88</v>
@@ -5927,13 +6288,17 @@
         <v>3</v>
       </c>
       <c r="O90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4804_Q.png</v>
       </c>
-    </row>
-    <row r="91" spans="1:15">
+      <c r="P90" t="str">
+        <f t="shared" si="3"/>
+        <v>4804.png</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>89</v>
@@ -5975,13 +6340,17 @@
         <v>3</v>
       </c>
       <c r="O91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4105_Q.png</v>
       </c>
-    </row>
-    <row r="92" spans="1:15">
+      <c r="P91" t="str">
+        <f t="shared" si="3"/>
+        <v>4105.png</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>90</v>
@@ -6023,13 +6392,17 @@
         <v>1</v>
       </c>
       <c r="O92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4205_Q.png</v>
       </c>
-    </row>
-    <row r="93" spans="1:15">
+      <c r="P92" t="str">
+        <f t="shared" si="3"/>
+        <v>4205.png</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>91</v>
@@ -6071,13 +6444,17 @@
         <v>1</v>
       </c>
       <c r="O93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4305_Q.png</v>
       </c>
-    </row>
-    <row r="94" spans="1:15">
+      <c r="P93" t="str">
+        <f t="shared" si="3"/>
+        <v>4305.png</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>92</v>
@@ -6119,13 +6496,17 @@
         <v>2</v>
       </c>
       <c r="O94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4405_Q.png</v>
       </c>
-    </row>
-    <row r="95" spans="1:15">
+      <c r="P94" t="str">
+        <f t="shared" si="3"/>
+        <v>4405.png</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>93</v>
@@ -6167,13 +6548,17 @@
         <v>1</v>
       </c>
       <c r="O95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4505_Q.png</v>
       </c>
-    </row>
-    <row r="96" spans="1:15">
+      <c r="P95" t="str">
+        <f t="shared" si="3"/>
+        <v>4505.png</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>94</v>
@@ -6215,13 +6600,17 @@
         <v>1</v>
       </c>
       <c r="O96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4605_Q.png</v>
       </c>
-    </row>
-    <row r="97" spans="1:15">
+      <c r="P96" t="str">
+        <f t="shared" si="3"/>
+        <v>4605.png</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>95</v>
@@ -6263,13 +6652,17 @@
         <v>0</v>
       </c>
       <c r="O97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4705_Q.png</v>
       </c>
-    </row>
-    <row r="98" spans="1:15">
+      <c r="P97" t="str">
+        <f t="shared" si="3"/>
+        <v>4705.png</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>96</v>
@@ -6311,13 +6704,17 @@
         <v>4</v>
       </c>
       <c r="O98" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4805_Q.png</v>
       </c>
-    </row>
-    <row r="99" spans="1:15">
+      <c r="P98" t="str">
+        <f t="shared" si="3"/>
+        <v>4805.png</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>97</v>
@@ -6359,13 +6756,17 @@
         <v>0</v>
       </c>
       <c r="O99" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4106_Q.png</v>
       </c>
-    </row>
-    <row r="100" spans="1:15">
+      <c r="P99" t="str">
+        <f t="shared" si="3"/>
+        <v>4106.png</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>98</v>
@@ -6407,13 +6808,17 @@
         <v>1</v>
       </c>
       <c r="O100" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4206_Q.png</v>
       </c>
-    </row>
-    <row r="101" spans="1:15">
+      <c r="P100" t="str">
+        <f t="shared" si="3"/>
+        <v>4206.png</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>99</v>
@@ -6455,13 +6860,17 @@
         <v>2</v>
       </c>
       <c r="O101" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4306_Q.png</v>
       </c>
-    </row>
-    <row r="102" spans="1:15">
+      <c r="P101" t="str">
+        <f t="shared" si="3"/>
+        <v>4306.png</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>100</v>
@@ -6503,13 +6912,17 @@
         <v>1</v>
       </c>
       <c r="O102" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4406_Q.png</v>
       </c>
-    </row>
-    <row r="103" spans="1:15">
+      <c r="P102" t="str">
+        <f t="shared" si="3"/>
+        <v>4406.png</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>101</v>
@@ -6551,13 +6964,17 @@
         <v>1</v>
       </c>
       <c r="O103" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4506_Q.png</v>
       </c>
-    </row>
-    <row r="104" spans="1:15">
+      <c r="P103" t="str">
+        <f t="shared" si="3"/>
+        <v>4506.png</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>102</v>
@@ -6599,13 +7016,17 @@
         <v>2</v>
       </c>
       <c r="O104" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4606_Q.png</v>
       </c>
-    </row>
-    <row r="105" spans="1:15">
+      <c r="P104" t="str">
+        <f t="shared" si="3"/>
+        <v>4606.png</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>103</v>
@@ -6647,13 +7068,17 @@
         <v>2</v>
       </c>
       <c r="O105" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4706_Q.png</v>
       </c>
-    </row>
-    <row r="106" spans="1:15">
+      <c r="P105" t="str">
+        <f t="shared" si="3"/>
+        <v>4706.png</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>104</v>
@@ -6695,13 +7120,17 @@
         <v>1</v>
       </c>
       <c r="O106" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4807_Q.png</v>
       </c>
-    </row>
-    <row r="107" spans="1:15">
+      <c r="P106" t="str">
+        <f t="shared" si="3"/>
+        <v>4807.png</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>105</v>
@@ -6743,13 +7172,17 @@
         <v>0</v>
       </c>
       <c r="O107" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4407_Q.png</v>
       </c>
-    </row>
-    <row r="108" spans="1:15">
+      <c r="P107" t="str">
+        <f t="shared" si="3"/>
+        <v>4407.png</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>106</v>
@@ -6791,13 +7224,17 @@
         <v>0</v>
       </c>
       <c r="O108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5101_Q.png</v>
       </c>
-    </row>
-    <row r="109" spans="1:15">
+      <c r="P108" t="str">
+        <f t="shared" si="3"/>
+        <v>5101.png</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>107</v>
@@ -6839,13 +7276,17 @@
         <v>0</v>
       </c>
       <c r="O109" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5201_Q.png</v>
       </c>
-    </row>
-    <row r="110" spans="1:15">
+      <c r="P109" t="str">
+        <f t="shared" si="3"/>
+        <v>5201.png</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>108</v>
@@ -6887,13 +7328,17 @@
         <v>3</v>
       </c>
       <c r="O110" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5301_Q.png</v>
       </c>
-    </row>
-    <row r="111" spans="1:15">
+      <c r="P110" t="str">
+        <f t="shared" si="3"/>
+        <v>5301.png</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>109</v>
@@ -6935,13 +7380,17 @@
         <v>1</v>
       </c>
       <c r="O111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5401_Q.png</v>
       </c>
-    </row>
-    <row r="112" spans="1:15">
+      <c r="P111" t="str">
+        <f t="shared" si="3"/>
+        <v>5401.png</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>110</v>
@@ -6983,13 +7432,17 @@
         <v>0</v>
       </c>
       <c r="O112" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5501_Q.png</v>
       </c>
-    </row>
-    <row r="113" spans="1:15">
+      <c r="P112" t="str">
+        <f t="shared" si="3"/>
+        <v>5501.png</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>111</v>
@@ -7031,13 +7484,17 @@
         <v>2</v>
       </c>
       <c r="O113" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5601_Q.png</v>
       </c>
-    </row>
-    <row r="114" spans="1:15">
+      <c r="P113" t="str">
+        <f t="shared" si="3"/>
+        <v>5601.png</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>112</v>
@@ -7079,13 +7536,17 @@
         <v>1</v>
       </c>
       <c r="O114" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5701_Q.png</v>
       </c>
-    </row>
-    <row r="115" spans="1:15">
+      <c r="P114" t="str">
+        <f t="shared" si="3"/>
+        <v>5701.png</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>113</v>
@@ -7127,13 +7588,17 @@
         <v>5</v>
       </c>
       <c r="O115" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5801_Q.png</v>
       </c>
-    </row>
-    <row r="116" spans="1:15">
+      <c r="P115" t="str">
+        <f t="shared" si="3"/>
+        <v>5801.png</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
       <c r="A116" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>114</v>
@@ -7175,13 +7640,17 @@
         <v>1</v>
       </c>
       <c r="O116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5102_Q.png</v>
       </c>
-    </row>
-    <row r="117" spans="1:15">
+      <c r="P116" t="str">
+        <f t="shared" si="3"/>
+        <v>5102.png</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
       <c r="A117" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>115</v>
@@ -7223,13 +7692,17 @@
         <v>0</v>
       </c>
       <c r="O117" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5202_Q.png</v>
       </c>
-    </row>
-    <row r="118" spans="1:15">
+      <c r="P117" t="str">
+        <f t="shared" si="3"/>
+        <v>5202.png</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>116</v>
@@ -7271,13 +7744,17 @@
         <v>2</v>
       </c>
       <c r="O118" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5302_Q.png</v>
       </c>
-    </row>
-    <row r="119" spans="1:15">
+      <c r="P118" t="str">
+        <f t="shared" si="3"/>
+        <v>5302.png</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>117</v>
@@ -7319,13 +7796,17 @@
         <v>1</v>
       </c>
       <c r="O119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5402_Q.png</v>
       </c>
-    </row>
-    <row r="120" spans="1:15">
+      <c r="P119" t="str">
+        <f t="shared" si="3"/>
+        <v>5402.png</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>118</v>
@@ -7367,13 +7848,17 @@
         <v>0</v>
       </c>
       <c r="O120" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5502_Q.png</v>
       </c>
-    </row>
-    <row r="121" spans="1:15">
+      <c r="P120" t="str">
+        <f t="shared" si="3"/>
+        <v>5502.png</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
       <c r="A121" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>119</v>
@@ -7415,13 +7900,17 @@
         <v>5</v>
       </c>
       <c r="O121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5602_Q.png</v>
       </c>
-    </row>
-    <row r="122" spans="1:15">
+      <c r="P121" t="str">
+        <f t="shared" si="3"/>
+        <v>5602.png</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
       <c r="A122" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>120</v>
@@ -7463,13 +7952,17 @@
         <v>2</v>
       </c>
       <c r="O122" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5702_Q.png</v>
       </c>
-    </row>
-    <row r="123" spans="1:15">
+      <c r="P122" t="str">
+        <f t="shared" si="3"/>
+        <v>5702.png</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
       <c r="A123" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>121</v>
@@ -7511,13 +8004,17 @@
         <v>6</v>
       </c>
       <c r="O123" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5802_Q.png</v>
       </c>
-    </row>
-    <row r="124" spans="1:15">
+      <c r="P123" t="str">
+        <f t="shared" si="3"/>
+        <v>5802.png</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
       <c r="A124" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>122</v>
@@ -7559,13 +8056,17 @@
         <v>2</v>
       </c>
       <c r="O124" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5103_Q.png</v>
       </c>
-    </row>
-    <row r="125" spans="1:15">
+      <c r="P124" t="str">
+        <f t="shared" si="3"/>
+        <v>5103.png</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
       <c r="A125" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>123</v>
@@ -7607,13 +8108,17 @@
         <v>1</v>
       </c>
       <c r="O125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5203_Q.png</v>
       </c>
-    </row>
-    <row r="126" spans="1:15">
+      <c r="P125" t="str">
+        <f t="shared" si="3"/>
+        <v>5203.png</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
       <c r="A126" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>124</v>
@@ -7655,13 +8160,17 @@
         <v>1</v>
       </c>
       <c r="O126" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5303_Q.png</v>
       </c>
-    </row>
-    <row r="127" spans="1:15">
+      <c r="P126" t="str">
+        <f t="shared" si="3"/>
+        <v>5303.png</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
       <c r="A127" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>125</v>
@@ -7703,13 +8212,17 @@
         <v>1</v>
       </c>
       <c r="O127" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5403_Q.png</v>
       </c>
-    </row>
-    <row r="128" spans="1:15">
+      <c r="P127" t="str">
+        <f t="shared" si="3"/>
+        <v>5403.png</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
       <c r="A128" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>126</v>
@@ -7751,13 +8264,17 @@
         <v>2</v>
       </c>
       <c r="O128" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5503_Q.png</v>
       </c>
-    </row>
-    <row r="129" spans="1:15">
+      <c r="P128" t="str">
+        <f t="shared" si="3"/>
+        <v>5503.png</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
       <c r="A129" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>127</v>
@@ -7799,13 +8316,17 @@
         <v>2</v>
       </c>
       <c r="O129" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5603_Q.png</v>
       </c>
-    </row>
-    <row r="130" spans="1:15">
+      <c r="P129" t="str">
+        <f t="shared" si="3"/>
+        <v>5603.png</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
       <c r="A130" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>128</v>
@@ -7847,13 +8368,17 @@
         <v>1</v>
       </c>
       <c r="O130" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5703_Q.png</v>
       </c>
-    </row>
-    <row r="131" spans="1:15">
+      <c r="P130" t="str">
+        <f t="shared" si="3"/>
+        <v>5703.png</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
       <c r="A131" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>129</v>
@@ -7895,13 +8420,17 @@
         <v>5</v>
       </c>
       <c r="O131" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5803_Q.png</v>
       </c>
-    </row>
-    <row r="132" spans="1:15">
+      <c r="P131" t="str">
+        <f t="shared" si="3"/>
+        <v>5803.png</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
       <c r="A132" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>130</v>
@@ -7943,13 +8472,17 @@
         <v>0</v>
       </c>
       <c r="O132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5104_Q.png</v>
       </c>
-    </row>
-    <row r="133" spans="1:15">
+      <c r="P132" t="str">
+        <f t="shared" ref="P132:P150" si="5">A132&amp;".png"</f>
+        <v>5104.png</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
       <c r="A133" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>131</v>
@@ -7991,13 +8524,17 @@
         <v>1</v>
       </c>
       <c r="O133" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5204_Q.png</v>
       </c>
-    </row>
-    <row r="134" spans="1:15">
+      <c r="P133" t="str">
+        <f t="shared" si="5"/>
+        <v>5204.png</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
       <c r="A134" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>132</v>
@@ -8039,13 +8576,17 @@
         <v>0</v>
       </c>
       <c r="O134" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5304_Q.png</v>
       </c>
-    </row>
-    <row r="135" spans="1:15">
+      <c r="P134" t="str">
+        <f t="shared" si="5"/>
+        <v>5304.png</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
       <c r="A135" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>133</v>
@@ -8087,13 +8628,17 @@
         <v>1</v>
       </c>
       <c r="O135" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5404_Q.png</v>
       </c>
-    </row>
-    <row r="136" spans="1:15">
+      <c r="P135" t="str">
+        <f t="shared" si="5"/>
+        <v>5404.png</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
       <c r="A136" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>134</v>
@@ -8135,13 +8680,17 @@
         <v>1</v>
       </c>
       <c r="O136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5504_Q.png</v>
       </c>
-    </row>
-    <row r="137" spans="1:15">
+      <c r="P136" t="str">
+        <f t="shared" si="5"/>
+        <v>5504.png</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
       <c r="A137" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>135</v>
@@ -8183,13 +8732,17 @@
         <v>5</v>
       </c>
       <c r="O137" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5604_Q.png</v>
       </c>
-    </row>
-    <row r="138" spans="1:15">
+      <c r="P137" t="str">
+        <f t="shared" si="5"/>
+        <v>5604.png</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
       <c r="A138" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>136</v>
@@ -8231,13 +8784,17 @@
         <v>3</v>
       </c>
       <c r="O138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5704_Q.png</v>
       </c>
-    </row>
-    <row r="139" spans="1:15">
+      <c r="P138" t="str">
+        <f t="shared" si="5"/>
+        <v>5704.png</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
       <c r="A139" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>137</v>
@@ -8279,13 +8836,17 @@
         <v>3</v>
       </c>
       <c r="O139" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5804_Q.png</v>
       </c>
-    </row>
-    <row r="140" spans="1:15">
+      <c r="P139" t="str">
+        <f t="shared" si="5"/>
+        <v>5804.png</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
       <c r="A140" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>138</v>
@@ -8327,13 +8888,17 @@
         <v>0</v>
       </c>
       <c r="O140" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5705_Q.png</v>
       </c>
-    </row>
-    <row r="141" spans="1:15">
+      <c r="P140" t="str">
+        <f t="shared" si="5"/>
+        <v>5705.png</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
       <c r="A141" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>139</v>
@@ -8375,13 +8940,17 @@
         <v>1</v>
       </c>
       <c r="O141" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5805_Q.png</v>
       </c>
-    </row>
-    <row r="142" spans="1:15">
+      <c r="P141" t="str">
+        <f t="shared" si="5"/>
+        <v>5805.png</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
       <c r="A142" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>140</v>
@@ -8423,13 +8992,17 @@
         <v>4</v>
       </c>
       <c r="O142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5706_Q.png</v>
       </c>
-    </row>
-    <row r="143" spans="1:15">
+      <c r="P142" t="str">
+        <f t="shared" si="5"/>
+        <v>5706.png</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
       <c r="A143" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>141</v>
@@ -8470,14 +9043,16 @@
       <c r="N143" s="1">
         <v>0</v>
       </c>
-      <c r="O143" t="str">
-        <f t="shared" si="2"/>
-        <v>6101_Q.png</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
+      <c r="O143" t="s">
+        <v>329</v>
+      </c>
+      <c r="P143" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
       <c r="A144" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>142</v>
@@ -8518,14 +9093,16 @@
       <c r="N144" s="1">
         <v>0</v>
       </c>
-      <c r="O144" t="str">
-        <f t="shared" si="2"/>
-        <v>6201_Q.png</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15">
+      <c r="O144" t="s">
+        <v>329</v>
+      </c>
+      <c r="P144" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16">
       <c r="A145" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>143</v>
@@ -8566,14 +9143,16 @@
       <c r="N145" s="1">
         <v>0</v>
       </c>
-      <c r="O145" t="str">
-        <f t="shared" si="2"/>
-        <v>6301_Q.png</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
+      <c r="O145" t="s">
+        <v>329</v>
+      </c>
+      <c r="P145" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
       <c r="A146" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>144</v>
@@ -8614,14 +9193,16 @@
       <c r="N146" s="1">
         <v>0</v>
       </c>
-      <c r="O146" t="str">
-        <f t="shared" si="2"/>
-        <v>6401_Q.png</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
+      <c r="O146" t="s">
+        <v>329</v>
+      </c>
+      <c r="P146" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
       <c r="A147" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>145</v>
@@ -8662,14 +9243,16 @@
       <c r="N147" s="1">
         <v>0</v>
       </c>
-      <c r="O147" t="str">
-        <f t="shared" si="2"/>
-        <v>6501_Q.png</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15">
+      <c r="O147" t="s">
+        <v>329</v>
+      </c>
+      <c r="P147" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
       <c r="A148" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>146</v>
@@ -8710,14 +9293,16 @@
       <c r="N148" s="1">
         <v>0</v>
       </c>
-      <c r="O148" t="str">
-        <f t="shared" si="2"/>
-        <v>6601_Q.png</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
+      <c r="O148" t="s">
+        <v>329</v>
+      </c>
+      <c r="P148" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16">
       <c r="A149" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>147</v>
@@ -8758,14 +9343,16 @@
       <c r="N149" s="1">
         <v>0</v>
       </c>
-      <c r="O149" t="str">
-        <f t="shared" si="2"/>
-        <v>6701_Q.png</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
+      <c r="O149" t="s">
+        <v>329</v>
+      </c>
+      <c r="P149" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
       <c r="A150" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>147</v>
@@ -8806,9 +9393,11 @@
       <c r="N150" s="1">
         <v>0</v>
       </c>
-      <c r="O150" t="str">
-        <f t="shared" ref="O150" si="3">A150&amp;"_Q.png"</f>
-        <v>6801_Q.png</v>
+      <c r="O150" t="s">
+        <v>329</v>
+      </c>
+      <c r="P150" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
